--- a/РГРКЭ(формулы).xlsx
+++ b/РГРКЭ(формулы).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Сашка\Kursovaya\kukursovaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Rkmax</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>Uвхmin</t>
+  </si>
+  <si>
+    <t>Рб</t>
+  </si>
+  <si>
+    <t>Iбн</t>
+  </si>
+  <si>
+    <t>Tзф</t>
+  </si>
+  <si>
+    <t>tф</t>
+  </si>
+  <si>
+    <t>Тк</t>
+  </si>
+  <si>
+    <t>Твкл</t>
+  </si>
+  <si>
+    <t>Iбзап</t>
+  </si>
+  <si>
+    <t>Тр</t>
+  </si>
+  <si>
+    <t>Тсп</t>
+  </si>
+  <si>
+    <t>Твыкл</t>
   </si>
 </sst>
 </file>
@@ -366,13 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -435,21 +468,159 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>((A7-1.1)*0.01)/(0.05*A2)</f>
+        <v>-1.3036188800000004</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <f>((C7-1.1)*0.01)/(0.05*C2)</f>
+        <v>-1.1462528000000005</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f>6*(1+(-4))-140*A2*A4</f>
-        <v>494.39999999999975</v>
+        <f>6*(1+(-4))-140*0.01*A4</f>
+        <v>-16.052880000000002</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <f>8*(1+2)-140*C2*C4</f>
-        <v>-6612.0000000000009</v>
+        <f>8*(1+2)-140*0.01*C4</f>
+        <v>-10.064800000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>A9*A6</f>
+        <v>-9.0278315789473693E-2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f>C9*C6</f>
+        <v>-4.3499220779220804E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>(A2/10)^2</f>
+        <v>6.9252077562326861E-2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f>(C2/10)^2</f>
+        <v>3.7949063923089901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f>A6*(1+1.2)*1.5*1.98</f>
+        <v>-8.5178457619200039</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f>C6*(1+(-1))*1.5*1.98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f>10+A12</f>
+        <v>-76.924999999999969</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f>10+C12</f>
+        <v>1774.0700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f>((14+1+10)*2.5)*A4</f>
+        <v>-86.924999999999969</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f>((18+1+10)*2.5)*C4</f>
+        <v>1764.0700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f>A10+A11</f>
+        <v>-85.442845761919969</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f>C10+C11</f>
+        <v>1774.0700000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>60*0.0075120040185772</f>
+        <v>0.45072024111463199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <f>50*0.011737718733809</f>
+        <v>0.58688593669045008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>(4.8-0.6)/(A6+1.5)</f>
+        <v>21.386984655144079</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f>(4.8-0.6)/(C6+1.5)</f>
+        <v>11.872885495630795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f>-0.012380909581598*10</f>
+        <v>-0.12380909581598</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f>-0.016543658570135*10</f>
+        <v>-0.16543658570135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f>A14+A16</f>
+        <v>0.32691114529865201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f>C14+C16</f>
+        <v>0.42144935098910008</v>
       </c>
     </row>
   </sheetData>

--- a/РГРКЭ(формулы).xlsx
+++ b/РГРКЭ(формулы).xlsx
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -405,225 +414,228 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <f>15/(6-0.3)</f>
         <v>2.6315789473684208</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f xml:space="preserve"> 15/(8-0.3)</f>
         <v>1.948051948051948</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <f>(6*(1+(-4))-0.3)/A2</f>
         <v>-6.9540000000000006</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>(8*(1+2)-0.3)/1.948052</f>
         <v>12.165999675573342</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <f>(1-1.2)*6.954</f>
         <v>-1.3907999999999996</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>(1+1)*12.166</f>
         <v>24.332000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <f>A2*A2*A4</f>
         <v>-9.6315789473684159</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>C2*C2*C4</f>
         <v>92.337662337662337</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <f>((A7-1.1)*0.01)/(0.05*A2)</f>
         <v>-1.3036188800000004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>((C7-1.1)*0.01)/(0.05*C2)</f>
         <v>-1.1462528000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <f>6*(1+(-4))-140*0.01*A4</f>
         <v>-16.052880000000002</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f>8*(1+2)-140*0.01*C4</f>
         <v>-10.064800000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f>A9*A6</f>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <f>A9*A9*A6</f>
         <v>-9.0278315789473693E-2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <f>C9*C6</f>
+      <c r="C8" s="2">
+        <f>C9*C9*C6</f>
         <v>-4.3499220779220804E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f>(A2/10)^2</f>
-        <v>6.9252077562326861E-2</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <f>(A2/10)</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <f>(C2/10)^2</f>
-        <v>3.7949063923089901E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="C9" s="2">
+        <f>(C2/10)</f>
+        <v>0.19480519480519481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <f>A6*(1+1.2)*1.5*1.98</f>
         <v>-8.5178457619200039</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f>C6*(1+(-1))*1.5*1.98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <f>10+A12</f>
         <v>-76.924999999999969</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f>10+C12</f>
         <v>1774.0700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
         <f>((14+1+10)*2.5)*A4</f>
         <v>-86.924999999999969</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f>((18+1+10)*2.5)*C4</f>
         <v>1764.0700000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <f>A10+A11</f>
         <v>-85.442845761919969</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f>C10+C11</f>
         <v>1774.0700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
         <f>60*0.0075120040185772</f>
         <v>0.45072024111463199</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f>50*0.011737718733809</f>
         <v>0.58688593669045008</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
         <f>(4.8-0.6)/(A6+1.5)</f>
         <v>21.386984655144079</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>(4.8-0.6)/(C6+1.5)</f>
         <v>11.872885495630795</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <f>-0.012380909581598*10</f>
         <v>-0.12380909581598</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f>-0.016543658570135*10</f>
         <v>-0.16543658570135</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <f>A14+A16</f>
         <v>0.32691114529865201</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f>C14+C16</f>
         <v>0.42144935098910008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>